--- a/stats2/tables/table1_3.xlsx
+++ b/stats2/tables/table1_3.xlsx
@@ -466,20 +466,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-3.48576, -2.88202]</t>
+          <t>[-3.48576, -2.73664]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02105263157894737</v>
+        <v>0.035</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01968799390228924</v>
+        <v>0.02767146926338101</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001364637676658127</v>
+        <v>0.007328530736618998</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01797160439918097</v>
+        <v>0.3881786127536274</v>
       </c>
     </row>
     <row r="3">
@@ -488,20 +488,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(-2.88202, -2.27828]</t>
+          <t>(-2.73664, -1.98752]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05789473684210526</v>
+        <v>0.115</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0501615980758208</v>
+        <v>0.08489434127681432</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007733138766284467</v>
+        <v>0.03010565872318569</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2265133711801165</v>
+        <v>2.135244054021447</v>
       </c>
     </row>
     <row r="4">
@@ -510,20 +510,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(-2.27828, -1.67454]</t>
+          <t>(-1.98752, -1.23841]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.131578947368421</v>
+        <v>0.13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1159214969233158</v>
+        <v>0.1925242096031655</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01565745044510523</v>
+        <v>0.06252420960316546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4018201505333321</v>
+        <v>4.061075533885783</v>
       </c>
     </row>
     <row r="5">
@@ -532,20 +532,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(-1.67454, -1.07080]</t>
+          <t>(-1.23841, -0.48929]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1473684210526316</v>
+        <v>0.26</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1924088039159685</v>
+        <v>0.2715723740824629</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04504038286333698</v>
+        <v>0.01157237408246287</v>
       </c>
       <c r="F5" t="n">
-        <v>2.003239191584867</v>
+        <v>0.09862552651529537</v>
       </c>
     </row>
     <row r="6">
@@ -554,20 +554,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(-1.07080, -0.46706]</t>
+          <t>(-0.48929, 0.25983]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1947368421052632</v>
+        <v>0.275</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2294162736191651</v>
+        <v>0.2383556984569924</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0346794315139019</v>
+        <v>0.03664430154300757</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9960320631113213</v>
+        <v>1.126723501277781</v>
       </c>
     </row>
     <row r="7">
@@ -576,20 +576,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(-0.46706, 0.13668]</t>
+          <t>(0.25983, 1.00894]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2315789473684211</v>
+        <v>0.13</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1965108678858251</v>
+        <v>0.1301515463067183</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03506807948259599</v>
+        <v>0.0001515463067183198</v>
       </c>
       <c r="F7" t="n">
-        <v>1.189025015498452</v>
+        <v>3.52916023384619e-05</v>
       </c>
     </row>
     <row r="8">
@@ -598,20 +598,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(0.13668, 0.74042]</t>
+          <t>(1.00894, 1.75806]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1473684210526316</v>
+        <v>0.045</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1209177907297827</v>
+        <v>0.04418809136477653</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02645063032284886</v>
+        <v>0.0008119086352234711</v>
       </c>
       <c r="F8" t="n">
-        <v>1.099348653727103</v>
+        <v>0.002983589521931248</v>
       </c>
     </row>
     <row r="9">
@@ -620,20 +620,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(0.74042, 1.34416]</t>
+          <t>(1.75806, 2.50718]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.06315789473684211</v>
+        <v>0.01</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05344018230567982</v>
+        <v>0.01064226964568904</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00971771243116229</v>
+        <v>0.0006422696456890396</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3357482488995658</v>
+        <v>0.007752299302820683</v>
       </c>
     </row>
     <row r="10">
@@ -648,16 +648,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9947368421052631</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.978465007357847</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04504038286333698</v>
+        <v>0.06252420960316546</v>
       </c>
       <c r="F10" t="n">
-        <v>6.269698298933939</v>
+        <v>7.820618408881025</v>
       </c>
     </row>
   </sheetData>
